--- a/character_expressions.xlsx
+++ b/character_expressions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5377DD-ADBC-4B92-BDD2-4C3632925101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C12B44-1104-4948-8100-0D0FC112C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70D50892-A28E-4BD4-8904-2E9A0AE59BDF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="435">
   <si>
     <t>Mara</t>
   </si>
@@ -1035,9 +1035,6 @@
     <t>neutral indignant</t>
   </si>
   <si>
-    <t>neutral raised eyebrow</t>
-  </si>
-  <si>
     <t>neutral stern</t>
   </si>
   <si>
@@ -1218,9 +1215,6 @@
     <t>Petrov</t>
   </si>
   <si>
-    <t>neutral neutral_tears</t>
-  </si>
-  <si>
     <t>neutral crying_holding_back</t>
   </si>
   <si>
@@ -1342,6 +1336,9 @@
   </si>
   <si>
     <t>drinking_coffee satisfied</t>
+  </si>
+  <si>
+    <t>neutral tears</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3789E7F3-B1EE-45C8-97AD-43F0D15E3EB2}">
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,25 +1737,25 @@
         <v>326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1778,7 +1775,7 @@
         <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1828,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
@@ -1866,13 +1863,13 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K4" t="s">
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1892,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -1904,7 +1901,7 @@
         <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K5" t="s">
         <v>106</v>
@@ -1942,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -1956,7 +1953,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1968,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -1977,10 +1974,10 @@
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2038,7 +2035,7 @@
         <v>304</v>
       </c>
       <c r="H9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -2105,7 +2102,7 @@
         <v>301</v>
       </c>
       <c r="I11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
@@ -2128,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
         <v>43</v>
@@ -2140,7 +2137,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2163,7 +2160,7 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -2172,7 +2169,7 @@
         <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2195,7 +2192,7 @@
         <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H14" t="s">
         <v>102</v>
@@ -2204,7 +2201,7 @@
         <v>301</v>
       </c>
       <c r="K14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2236,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2267,6 +2264,9 @@
       <c r="I16" t="s">
         <v>33</v>
       </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2291,7 +2291,7 @@
         <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I17" t="s">
         <v>304</v>
@@ -2369,13 +2369,13 @@
         <v>302</v>
       </c>
       <c r="E20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
@@ -2401,13 +2401,16 @@
         <v>301</v>
       </c>
       <c r="F21" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
       </c>
       <c r="H21" t="s">
         <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2429,11 +2432,14 @@
       <c r="F22" t="s">
         <v>305</v>
       </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2459,7 +2465,7 @@
         <v>312</v>
       </c>
       <c r="I23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
         <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2502,10 +2508,10 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H25" t="s">
         <v>119</v>
@@ -2531,7 +2537,7 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H26" t="s">
         <v>48</v>
@@ -2560,7 +2566,7 @@
         <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2623,10 +2629,10 @@
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2663,10 +2669,10 @@
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2691,7 +2697,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
@@ -2723,7 +2729,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F35" t="s">
         <v>56</v>
@@ -2746,7 +2752,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2766,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2783,10 +2789,10 @@
         <v>309</v>
       </c>
       <c r="E38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2803,7 +2809,7 @@
         <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F39" t="s">
         <v>57</v>
@@ -2823,10 +2829,10 @@
         <v>311</v>
       </c>
       <c r="E40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,10 +2849,10 @@
         <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2863,7 +2869,7 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F42" t="s">
         <v>48</v>
@@ -2937,10 +2943,10 @@
         <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D46" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E46" t="s">
         <v>54</v>
@@ -2960,13 +2966,13 @@
         <v>214</v>
       </c>
       <c r="D47" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,13 +2986,13 @@
         <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E48" t="s">
         <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3006,7 +3012,7 @@
         <v>51</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3023,10 +3029,10 @@
         <v>314</v>
       </c>
       <c r="E50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3046,7 +3052,7 @@
         <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3066,7 +3072,7 @@
         <v>321</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3086,7 +3092,7 @@
         <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,13 +3106,13 @@
         <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,7 +3129,7 @@
         <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F55" t="s">
         <v>124</v>
@@ -3163,7 +3169,7 @@
         <v>317</v>
       </c>
       <c r="E57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3180,7 +3186,7 @@
         <v>92</v>
       </c>
       <c r="E58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3202,7 +3208,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s">
         <v>142</v>
@@ -3222,7 +3228,7 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C61" t="s">
         <v>228</v>
@@ -3290,7 +3296,7 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C65" t="s">
         <v>49</v>
@@ -3307,7 +3313,7 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C66" t="s">
         <v>231</v>
@@ -3316,7 +3322,7 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -3324,7 +3330,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C67" t="s">
         <v>232</v>
@@ -3341,7 +3347,7 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C68" t="s">
         <v>233</v>
@@ -3384,7 +3390,7 @@
         <v>324</v>
       </c>
       <c r="E70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3401,12 +3407,12 @@
         <v>293</v>
       </c>
       <c r="E71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s">
         <v>148</v>
@@ -3415,7 +3421,7 @@
         <v>237</v>
       </c>
       <c r="E72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3429,7 +3435,7 @@
         <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -3443,7 +3449,7 @@
         <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3457,7 +3463,7 @@
         <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3468,7 +3474,7 @@
         <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E76" t="s">
         <v>146</v>
@@ -3485,7 +3491,7 @@
         <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3527,7 +3533,7 @@
         <v>241</v>
       </c>
       <c r="E80" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3637,7 +3643,7 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C90" t="s">
         <v>251</v>
@@ -3645,7 +3651,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B91" t="s">
         <v>165</v>
@@ -3656,7 +3662,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B92" t="s">
         <v>166</v>
@@ -3692,7 +3698,7 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C95" t="s">
         <v>256</v>
@@ -3708,7 +3714,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
         <v>258</v>
@@ -3716,7 +3722,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C98" t="s">
         <v>259</v>
@@ -3807,7 +3813,7 @@
         <v>97</v>
       </c>
       <c r="C109" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -3836,7 +3842,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C113" t="s">
         <v>273</v>
@@ -3844,7 +3850,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C114" t="s">
         <v>274</v>
@@ -3947,37 +3953,37 @@
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/character_expressions.xlsx
+++ b/character_expressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C12B44-1104-4948-8100-0D0FC112C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5718B9D-DFF6-4A63-A29E-70AFC2B9F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70D50892-A28E-4BD4-8904-2E9A0AE59BDF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="462">
   <si>
     <t>Mara</t>
   </si>
@@ -1339,6 +1339,87 @@
   </si>
   <si>
     <t>neutral tears</t>
+  </si>
+  <si>
+    <t>downcast expressionless</t>
+  </si>
+  <si>
+    <t>downcast sigh</t>
+  </si>
+  <si>
+    <t>neutral down</t>
+  </si>
+  <si>
+    <t>surprise drooling</t>
+  </si>
+  <si>
+    <t>fidget embarrassed_blushing_profusely</t>
+  </si>
+  <si>
+    <t>surprise eek_blushing_profusely</t>
+  </si>
+  <si>
+    <t>Mick</t>
+  </si>
+  <si>
+    <t>waving smug</t>
+  </si>
+  <si>
+    <t>embarrassed away</t>
+  </si>
+  <si>
+    <t>embarrassed neutral</t>
+  </si>
+  <si>
+    <t>embarrassed sigh</t>
+  </si>
+  <si>
+    <t>embarrassed sigh_frustrated</t>
+  </si>
+  <si>
+    <t>embarrassed frustrated</t>
+  </si>
+  <si>
+    <t>neutral cold</t>
+  </si>
+  <si>
+    <t>neutral smug</t>
+  </si>
+  <si>
+    <t>neutral indifferent</t>
+  </si>
+  <si>
+    <t>waving skeptical</t>
+  </si>
+  <si>
+    <t>waving annoyed</t>
+  </si>
+  <si>
+    <t>waving frustrated</t>
+  </si>
+  <si>
+    <t>waving away</t>
+  </si>
+  <si>
+    <t>waving cold</t>
+  </si>
+  <si>
+    <t>Roxy</t>
+  </si>
+  <si>
+    <t>stretching smiling</t>
+  </si>
+  <si>
+    <t>neutral smiling_wishful</t>
+  </si>
+  <si>
+    <t>eating surprise</t>
+  </si>
+  <si>
+    <t>eating smirk</t>
+  </si>
+  <si>
+    <t>eating smiling_nervous</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3789E7F3-B1EE-45C8-97AD-43F0D15E3EB2}">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,12 +1796,14 @@
     <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,16 +1832,22 @@
         <v>386</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1795,8 +1884,14 @@
       <c r="L2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1825,16 +1920,22 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
         <v>434</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1863,16 +1964,22 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
         <v>393</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1901,16 +2008,22 @@
         <v>101</v>
       </c>
       <c r="J5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
         <v>389</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>106</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1939,13 +2052,19 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
         <v>390</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1974,13 +2093,19 @@
         <v>40</v>
       </c>
       <c r="J7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
         <v>391</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2008,11 +2133,17 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
       <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -2040,11 +2171,17 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
+      <c r="J9" t="s">
+        <v>449</v>
+      </c>
       <c r="K9" t="s">
+        <v>458</v>
+      </c>
+      <c r="M9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -2072,11 +2209,17 @@
       <c r="I10" t="s">
         <v>34</v>
       </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
       <c r="K10" t="s">
+        <v>299</v>
+      </c>
+      <c r="M10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2104,11 +2247,17 @@
       <c r="I11" t="s">
         <v>336</v>
       </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
       <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2136,11 +2285,17 @@
       <c r="I12" t="s">
         <v>45</v>
       </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
       <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2168,11 +2323,17 @@
       <c r="I13" t="s">
         <v>25</v>
       </c>
+      <c r="J13" t="s">
+        <v>450</v>
+      </c>
       <c r="K13" t="s">
+        <v>301</v>
+      </c>
+      <c r="M13" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2200,11 +2361,17 @@
       <c r="I14" t="s">
         <v>301</v>
       </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
       <c r="K14" t="s">
+        <v>353</v>
+      </c>
+      <c r="M14" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2232,11 +2399,17 @@
       <c r="I15" t="s">
         <v>15</v>
       </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
       <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2264,11 +2437,17 @@
       <c r="I16" t="s">
         <v>33</v>
       </c>
+      <c r="J16" t="s">
+        <v>451</v>
+      </c>
       <c r="K16" t="s">
+        <v>416</v>
+      </c>
+      <c r="M16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2296,8 +2475,14 @@
       <c r="I17" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>452</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2325,8 +2510,14 @@
       <c r="I18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2354,8 +2545,14 @@
       <c r="I19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>453</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2383,8 +2580,14 @@
       <c r="I20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>454</v>
+      </c>
+      <c r="K20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2412,8 +2615,14 @@
       <c r="I21" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>455</v>
+      </c>
+      <c r="K21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2441,8 +2650,11 @@
       <c r="I22" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2461,14 +2673,20 @@
       <c r="F23" t="s">
         <v>109</v>
       </c>
+      <c r="G23" t="s">
+        <v>327</v>
+      </c>
       <c r="H23" t="s">
         <v>312</v>
       </c>
       <c r="I23" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2487,14 +2705,20 @@
       <c r="F24" t="s">
         <v>106</v>
       </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
       <c r="H24" t="s">
         <v>126</v>
       </c>
       <c r="I24" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2513,14 +2737,20 @@
       <c r="F25" t="s">
         <v>362</v>
       </c>
+      <c r="G25" t="s">
+        <v>333</v>
+      </c>
       <c r="H25" t="s">
         <v>119</v>
       </c>
       <c r="I25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2545,8 +2775,11 @@
       <c r="I26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2568,8 +2801,11 @@
       <c r="H27" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2591,8 +2827,11 @@
       <c r="H28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2614,8 +2853,11 @@
       <c r="H29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2634,8 +2876,11 @@
       <c r="F30" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2655,7 +2900,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3420,6 +3665,9 @@
       <c r="C72" t="s">
         <v>237</v>
       </c>
+      <c r="D72" t="s">
+        <v>435</v>
+      </c>
       <c r="E72" t="s">
         <v>348</v>
       </c>
@@ -3434,6 +3682,9 @@
       <c r="C73" t="s">
         <v>67</v>
       </c>
+      <c r="D73" t="s">
+        <v>436</v>
+      </c>
       <c r="E73" t="s">
         <v>349</v>
       </c>
@@ -3448,6 +3699,9 @@
       <c r="C74" t="s">
         <v>238</v>
       </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
       <c r="E74" t="s">
         <v>350</v>
       </c>
@@ -3462,6 +3716,9 @@
       <c r="C75" t="s">
         <v>68</v>
       </c>
+      <c r="D75" t="s">
+        <v>459</v>
+      </c>
       <c r="E75" t="s">
         <v>351</v>
       </c>
@@ -3476,6 +3733,9 @@
       <c r="C76" t="s">
         <v>432</v>
       </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
       <c r="E76" t="s">
         <v>146</v>
       </c>
@@ -3490,6 +3750,9 @@
       <c r="C77" t="s">
         <v>74</v>
       </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
       <c r="E77" t="s">
         <v>423</v>
       </c>
@@ -3504,6 +3767,9 @@
       <c r="C78" t="s">
         <v>239</v>
       </c>
+      <c r="D78" t="s">
+        <v>460</v>
+      </c>
       <c r="E78" t="s">
         <v>25</v>
       </c>
@@ -3518,6 +3784,9 @@
       <c r="C79" t="s">
         <v>240</v>
       </c>
+      <c r="D79" t="s">
+        <v>461</v>
+      </c>
       <c r="E79" t="s">
         <v>45</v>
       </c>
@@ -3560,6 +3829,9 @@
       <c r="C82" t="s">
         <v>243</v>
       </c>
+      <c r="E82" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -3571,6 +3843,9 @@
       <c r="C83" t="s">
         <v>244</v>
       </c>
+      <c r="E83" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -3582,6 +3857,9 @@
       <c r="C84" t="s">
         <v>245</v>
       </c>
+      <c r="E84" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -3593,6 +3871,9 @@
       <c r="C85" t="s">
         <v>246</v>
       </c>
+      <c r="E85" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -3604,6 +3885,9 @@
       <c r="C86" t="s">
         <v>247</v>
       </c>
+      <c r="E86" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -3615,6 +3899,9 @@
       <c r="C87" t="s">
         <v>248</v>
       </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -3984,6 +4271,16 @@
     <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>431</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/character_expressions.xlsx
+++ b/character_expressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5718B9D-DFF6-4A63-A29E-70AFC2B9F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01409E13-7B1E-4F7C-B93C-5B66FBC77612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70D50892-A28E-4BD4-8904-2E9A0AE59BDF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="461">
   <si>
     <t>Mara</t>
   </si>
@@ -1389,21 +1389,6 @@
     <t>neutral indifferent</t>
   </si>
   <si>
-    <t>waving skeptical</t>
-  </si>
-  <si>
-    <t>waving annoyed</t>
-  </si>
-  <si>
-    <t>waving frustrated</t>
-  </si>
-  <si>
-    <t>waving away</t>
-  </si>
-  <si>
-    <t>waving cold</t>
-  </si>
-  <si>
     <t>Roxy</t>
   </si>
   <si>
@@ -1420,6 +1405,18 @@
   </si>
   <si>
     <t>eating smiling_nervous</t>
+  </si>
+  <si>
+    <t>arms_crossed cold</t>
+  </si>
+  <si>
+    <t>arms_crossed away</t>
+  </si>
+  <si>
+    <t>arms_crossed frustrated</t>
+  </si>
+  <si>
+    <t>neutral smiling_hostile</t>
   </si>
 </sst>
 </file>
@@ -1782,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3789E7F3-B1EE-45C8-97AD-43F0D15E3EB2}">
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,7 +1832,7 @@
         <v>441</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>392</v>
@@ -2175,7 +2172,7 @@
         <v>449</v>
       </c>
       <c r="K9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M9" t="s">
         <v>26</v>
@@ -2438,7 +2435,7 @@
         <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>451</v>
+        <v>312</v>
       </c>
       <c r="K16" t="s">
         <v>416</v>
@@ -2476,7 +2473,7 @@
         <v>304</v>
       </c>
       <c r="J17" t="s">
-        <v>452</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
@@ -2511,7 +2508,7 @@
         <v>305</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
         <v>48</v>
@@ -2546,7 +2543,7 @@
         <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="K19" t="s">
         <v>49</v>
@@ -2581,7 +2578,7 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K20" t="s">
         <v>230</v>
@@ -2616,10 +2613,10 @@
         <v>385</v>
       </c>
       <c r="J21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K21" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2653,6 +2650,9 @@
       <c r="J22" t="s">
         <v>442</v>
       </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2879,6 +2879,9 @@
       <c r="H30" t="s">
         <v>49</v>
       </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2899,6 +2902,9 @@
       <c r="F31" t="s">
         <v>125</v>
       </c>
+      <c r="J31" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -3717,7 +3723,7 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E75" t="s">
         <v>351</v>
@@ -3768,7 +3774,7 @@
         <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E78" t="s">
         <v>25</v>
@@ -3785,7 +3791,7 @@
         <v>240</v>
       </c>
       <c r="D79" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E79" t="s">
         <v>45</v>

--- a/character_expressions.xlsx
+++ b/character_expressions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01409E13-7B1E-4F7C-B93C-5B66FBC77612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A77B5-9EA9-45A7-AEE1-185FD72816F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70D50892-A28E-4BD4-8904-2E9A0AE59BDF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="481">
   <si>
     <t>Mara</t>
   </si>
@@ -1417,6 +1417,66 @@
   </si>
   <si>
     <t>neutral smiling_hostile</t>
+  </si>
+  <si>
+    <t>neutral bitter</t>
+  </si>
+  <si>
+    <t>smoking smiling</t>
+  </si>
+  <si>
+    <t>arms_crossed indignant</t>
+  </si>
+  <si>
+    <t>arms_crossed embarrassed</t>
+  </si>
+  <si>
+    <t>waving playful</t>
+  </si>
+  <si>
+    <t>hiding can</t>
+  </si>
+  <si>
+    <t>neutral surprise_blushing</t>
+  </si>
+  <si>
+    <t>arms_crossed sigh_blushing</t>
+  </si>
+  <si>
+    <t>worried bashful</t>
+  </si>
+  <si>
+    <t>worried hehe</t>
+  </si>
+  <si>
+    <t>worried bashful_blushing</t>
+  </si>
+  <si>
+    <t>Lilith's Aunt</t>
+  </si>
+  <si>
+    <t>neutral eek</t>
+  </si>
+  <si>
+    <t>slumped expressionless</t>
+  </si>
+  <si>
+    <t>slumped expressionless_dark</t>
+  </si>
+  <si>
+    <t>slumped pout</t>
+  </si>
+  <si>
+    <t>slumped neutral</t>
+  </si>
+  <si>
+    <t>arms_behind smiling</t>
+  </si>
+  <si>
+    <t>shy bambi_blushing</t>
+  </si>
+  <si>
+    <t>shy smiling_blushing_eyes</t>
   </si>
 </sst>
 </file>
@@ -1777,10 +1837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3789E7F3-B1EE-45C8-97AD-43F0D15E3EB2}">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,9 +1859,10 @@
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1843,172 +1905,184 @@
       <c r="N1" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>434</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>458</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>399</v>
       </c>
       <c r="N4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="J5" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="L5" t="s">
         <v>389</v>
@@ -2017,2279 +2091,2458 @@
         <v>106</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="G6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J6" t="s">
+        <v>459</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>443</v>
+      </c>
+      <c r="K9" t="s">
         <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>390</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>449</v>
-      </c>
-      <c r="K9" t="s">
-        <v>453</v>
       </c>
       <c r="M9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>355</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>461</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>448</v>
+      </c>
+      <c r="J11" t="s">
+        <v>447</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>444</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M13" t="s">
+        <v>398</v>
+      </c>
+      <c r="O13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
-        <v>301</v>
-      </c>
-      <c r="I11" t="s">
-        <v>336</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>327</v>
+      </c>
+      <c r="J14" t="s">
+        <v>446</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>395</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>353</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>450</v>
-      </c>
-      <c r="K13" t="s">
-        <v>301</v>
-      </c>
-      <c r="M13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" t="s">
-        <v>382</v>
-      </c>
-      <c r="H14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" t="s">
-        <v>353</v>
-      </c>
-      <c r="M14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
       <c r="J15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>396</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I16" t="s">
+        <v>450</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" t="s">
+        <v>453</v>
+      </c>
+      <c r="M16" t="s">
+        <v>397</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E17" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>301</v>
+      </c>
+      <c r="J17" t="s">
+        <v>448</v>
+      </c>
+      <c r="K17" t="s">
+        <v>353</v>
+      </c>
+      <c r="O17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>382</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>452</v>
+      </c>
+      <c r="O19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" t="s">
+        <v>357</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
         <v>11</v>
       </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="K21" t="s">
+        <v>230</v>
+      </c>
+      <c r="O21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>450</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>426</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" t="s">
+        <v>343</v>
+      </c>
+      <c r="F24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>305</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>362</v>
+      </c>
+      <c r="H27" t="s">
         <v>34</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>336</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
         <v>34</v>
       </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E17" t="s">
-        <v>331</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>353</v>
-      </c>
-      <c r="I17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>305</v>
-      </c>
-      <c r="H18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" t="s">
-        <v>305</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s">
-        <v>459</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" t="s">
-        <v>360</v>
-      </c>
-      <c r="G20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" t="s">
-        <v>458</v>
-      </c>
-      <c r="K20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F21" t="s">
-        <v>361</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" t="s">
-        <v>385</v>
-      </c>
-      <c r="J21" t="s">
-        <v>457</v>
-      </c>
-      <c r="K21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" t="s">
-        <v>303</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>385</v>
-      </c>
-      <c r="I22" t="s">
-        <v>387</v>
-      </c>
-      <c r="J22" t="s">
-        <v>442</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" t="s">
-        <v>327</v>
-      </c>
-      <c r="H23" t="s">
-        <v>312</v>
-      </c>
-      <c r="I23" t="s">
-        <v>368</v>
-      </c>
-      <c r="J23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" t="s">
-        <v>126</v>
-      </c>
-      <c r="I24" t="s">
-        <v>388</v>
-      </c>
-      <c r="J24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>355</v>
-      </c>
-      <c r="F25" t="s">
-        <v>362</v>
-      </c>
-      <c r="G25" t="s">
-        <v>333</v>
-      </c>
-      <c r="H25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="J29" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>363</v>
-      </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s">
-        <v>384</v>
-      </c>
-      <c r="J27" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
       <c r="E30" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="F30" t="s">
-        <v>364</v>
+        <v>9</v>
       </c>
       <c r="H30" t="s">
         <v>49</v>
       </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
       <c r="J30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="I31" t="s">
+        <v>336</v>
       </c>
       <c r="J31" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>427</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>323</v>
       </c>
       <c r="E32" t="s">
-        <v>333</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>428</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>413</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>334</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>367</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="F38" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E39" t="s">
-        <v>335</v>
+        <v>437</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E40" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F40" t="s">
-        <v>369</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>415</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="E41" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c r="E42" t="s">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>429</v>
       </c>
       <c r="D43" t="s">
-        <v>312</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>330</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>298</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>417</v>
+        <v>253</v>
       </c>
       <c r="D46" t="s">
-        <v>402</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
-        <v>404</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="D49" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="D50" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F50" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="D51" t="s">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>466</v>
       </c>
       <c r="D52" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E52" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="F53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="D54" t="s">
-        <v>405</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F54" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="F55" t="s">
-        <v>124</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="D57" t="s">
-        <v>317</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>343</v>
+        <v>424</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="E58" t="s">
-        <v>344</v>
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="D59" t="s">
-        <v>318</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>411</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>355</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>408</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>479</v>
       </c>
       <c r="D63" t="s">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>433</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E67" t="s">
-        <v>68</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>422</v>
       </c>
       <c r="D68" t="s">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>467</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>324</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>346</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>347</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>420</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="E73" t="s">
-        <v>349</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="E74" t="s">
-        <v>350</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="D75" t="s">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>409</v>
       </c>
       <c r="C76" t="s">
-        <v>432</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="E76" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="D79" t="s">
-        <v>456</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>416</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>188</v>
+      </c>
+      <c r="D81" t="s">
+        <v>321</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>189</v>
+      </c>
+      <c r="D82" t="s">
+        <v>293</v>
       </c>
       <c r="E82" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>469</v>
       </c>
       <c r="C84" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="E84" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>471</v>
       </c>
       <c r="C85" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="E85" t="s">
-        <v>437</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="E86" t="s">
-        <v>438</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>249</v>
+        <v>194</v>
+      </c>
+      <c r="E88" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C89" t="s">
-        <v>250</v>
+        <v>196</v>
+      </c>
+      <c r="E89" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>410</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s">
-        <v>251</v>
+        <v>197</v>
+      </c>
+      <c r="E90" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>412</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>198</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>413</v>
+        <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
+        <v>199</v>
+      </c>
+      <c r="E92" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C93" t="s">
-        <v>254</v>
+        <v>200</v>
+      </c>
+      <c r="E93" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>470</v>
       </c>
       <c r="C95" t="s">
-        <v>256</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>157</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>414</v>
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>158</v>
       </c>
       <c r="C97" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>415</v>
+        <v>60</v>
+      </c>
+      <c r="B98" t="s">
+        <v>159</v>
       </c>
       <c r="C98" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="B99" t="s">
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="B100" t="s">
+        <v>410</v>
       </c>
       <c r="C100" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="B101" t="s">
+        <v>410</v>
       </c>
       <c r="C101" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="B102" t="s">
+        <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="B103" t="s">
+        <v>161</v>
       </c>
       <c r="C103" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="B104" t="s">
+        <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>234</v>
+      </c>
+      <c r="B105" t="s">
+        <v>163</v>
       </c>
       <c r="C105" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>236</v>
+      </c>
+      <c r="B106" t="s">
+        <v>164</v>
       </c>
       <c r="C106" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>420</v>
       </c>
       <c r="C108" t="s">
-        <v>269</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>418</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
       <c r="C110" t="s">
-        <v>270</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="C112" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>419</v>
+        <v>68</v>
       </c>
       <c r="C113" t="s">
-        <v>273</v>
+        <v>431</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>46</v>
+      </c>
       <c r="C115" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>47</v>
+      </c>
       <c r="C116" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>48</v>
+      </c>
       <c r="C117" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>49</v>
+      </c>
       <c r="C118" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
       <c r="C119" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>287</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
-        <v>291</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
-        <v>425</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
-        <v>426</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>427</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
-        <v>428</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>429</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>430</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>439</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>440</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:M16">
+    <sortCondition ref="M2:M16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
